--- a/src/test/java/testData/TestData.xlsx
+++ b/src/test/java/testData/TestData.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="5310"/>
   </bookViews>
   <sheets>
     <sheet name="ContactDtls" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:L16"/>
 </workbook>
 </file>
 
@@ -480,7 +482,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,4 +614,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>